--- a/biology/Mycologie/Gymnopile/Gymnopile.xlsx
+++ b/biology/Mycologie/Gymnopile/Gymnopile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gymnopilus, le Gymnopile est un genre de champignons basidiomycètes lignicoles de la famille des Strophariaceae. 
 Il était autrefois classé dans la famille des Cortinariaceae ou parmi les pholiotes. La phylogénétique en a fait une famille spécifique: les Gymnopileae[réf. nécessaire].
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (10 novembre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (10 novembre 2013) :
 Gymnopilus abramsii
 Gymnopilus aculeatus
 Gymnopilus acystidiatus
@@ -729,7 +743,7 @@
 Gymnopilus yangshanensis
 Gymnopilus zempoalensis
 Gymnopilus zenkeri
-Selon Index Fungorum                                      (10 novembre 2013)[2] :
+Selon Index Fungorum                                      (10 novembre 2013) :
 Gymnopilus abramsii Murrill 1917
 Gymnopilus abruptus (Fr.) Horniček 1984
 Gymnopilus aculeatus (Bres. &amp; Roum.) Singer 1951
@@ -879,7 +893,7 @@
 Gymnopilus penetrans (Fr.) Murrill 1912
 Gymnopilus perisporius Garrido 1988
 Gymnopilus permollis Murrill 1912
-Selon NCBI  (10 novembre 2013)[3] :
+Selon NCBI  (10 novembre 2013) :
 Gymnopilus aeruginosus
 Gymnopilus allantopus
 Gymnopilus allochrous
